--- a/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="132">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T07:25:47+00:00</t>
+    <t>2024-03-12T09:15:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -264,7 +264,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Telecommunication</t>
+    <t>telecommunication</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -328,9 +328,6 @@
     <t>Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication</t>
   </si>
   <si>
-    <t>canal : JDV-J225-CanalCommunication-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:ror-telecom-usage</t>
   </si>
   <si>
@@ -344,9 +341,6 @@
     <t>Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication</t>
   </si>
   <si>
-    <t>utilisation</t>
-  </si>
-  <si>
     <t>Extension.extension:ror-telecom-confidentiality-level</t>
   </si>
   <si>
@@ -360,16 +354,10 @@
     <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
   </si>
   <si>
-    <t>niveauConfidentialite : JDV-J222-NiveauConfidentialite-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:telecomAddress</t>
   </si>
   <si>
     <t>telecomAddress</t>
-  </si>
-  <si>
-    <t>adresseTelecom</t>
   </si>
   <si>
     <t>Extension.extension:telecomAddress.id</t>
@@ -426,6 +414,9 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>adresseTelecom</t>
   </si>
   <si>
     <t>base64Binary
@@ -1327,18 +1318,18 @@
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>76</v>
@@ -1360,13 +1351,13 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1435,18 +1426,18 @@
         <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>76</v>
@@ -1468,13 +1459,13 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1543,18 +1534,18 @@
         <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>76</v>
@@ -1651,15 +1642,15 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1762,10 +1753,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1868,10 +1859,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1894,16 +1885,16 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -1911,7 +1902,7 @@
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="S11" t="s" s="2">
         <v>76</v>
@@ -1953,7 +1944,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>84</v>
@@ -1968,7 +1959,7 @@
         <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>76</v>
@@ -1976,10 +1967,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2005,10 +1996,10 @@
         <v>85</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2059,7 +2050,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2071,21 +2062,21 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2108,16 +2099,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2167,7 +2158,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>84</v>
@@ -2182,7 +2173,7 @@
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -2190,10 +2181,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2216,13 +2207,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2273,7 +2264,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2285,10 +2276,10 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>

--- a/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T09:15:29+00:00</t>
+    <t>2024-03-12T16:16:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:16:50+00:00</t>
+    <t>2024-03-12T16:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:39:05+00:00</t>
+    <t>2024-03-12T17:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
